--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5074 L5702 L597A L5712/FT_L5074.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5074 L5702 L597A L5712/FT_L5074.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5074 L5702 L597A L5712\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E4DE6-7577-4B4A-A6B4-10C318FC53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA599117-79F8-4856-82EC-867D18AE2BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="145">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>cu31780002</t>
-  </si>
-  <si>
     <t>5-功能規格書</t>
   </si>
   <si>
@@ -138,14 +135,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.2.docx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ready</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.2.docx</t>
   </si>
   <si>
     <t>連結至【L597A整批處理】:[債權區分]=[Y:最大債權]+[查詢項目]=[02:未入帳]+[查詢細項]=[0:無]+[是否製檔]=[0:無]+[是否為按鈕]=[0:N]，顯示前日匯入且交易狀態為未入帳之筆數合計連結至【L597A整批處理】:[債權區分]=[Y:最大債權]+[查詢項目]=[02:未入帳]+[查詢細項]=[0:無]+[是否製檔]=[0:無]+[是否為按鈕]=[1:Y]</t>
@@ -622,31 +612,6 @@
   </si>
   <si>
     <t>一般債權:
-[輸出按鈕]檢核成功-暫收解入筆數</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般債權:
-[輸出資料]檢核成功-暫收解入金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結至【L597A整批處理】: 
-[債權區分]=[N:一般債權]+[查詢項目]=[18:暫收解入]+[查詢細項]=[0:無]+[是否製檔]=[0:無]+[是否為按鈕[0:N]，顯示檢核成功，已入專戶但未入客戶暫收之筆數合計</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般債權:
-[輸出按鈕]應處理事項-暫收解入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結至【L597A整批處理】:
-[債權區分]=[N:一般債權]+[查詢項目]=[18:暫收解入]+[查詢細項]=[0:無]+[是否製檔]=[0:無]+[是否為按鈕[1:Y]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般債權:
 [輸出資料]檢核失敗金額</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -714,6 +679,12 @@
     <t>連結至【L597A整批處理】:
 [債權區分]=[N:一般債權]+[查詢項目]=[17:本月放款]+[查詢細項]=[0:無]+[是否製檔]=[0:無]+[是否為按鈕[0:N]，顯示本月已做入帳還款，交易狀態為已入帳之筆數合計</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu31780005</t>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.67.docx</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1243,10 @@
   <sheetPr codeName="工作表2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1333,42 +1304,42 @@
         <v>11</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>12</v>
@@ -1377,42 +1348,42 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="11" t="s">
@@ -1422,45 +1393,45 @@
         <v>13</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>12</v>
@@ -1469,45 +1440,45 @@
         <v>13</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>12</v>
@@ -1516,42 +1487,42 @@
         <v>13</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="11" t="s">
@@ -1561,45 +1532,45 @@
         <v>13</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>12</v>
@@ -1608,45 +1579,45 @@
         <v>13</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>12</v>
@@ -1655,42 +1626,42 @@
         <v>13</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="10" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>12</v>
@@ -1699,47 +1670,47 @@
         <v>13</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="10" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
@@ -1748,44 +1719,44 @@
         <v>13</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>12</v>
@@ -1794,45 +1765,45 @@
         <v>13</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>12</v>
@@ -1841,42 +1812,42 @@
         <v>13</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
@@ -1885,45 +1856,45 @@
         <v>13</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>12</v>
@@ -1932,45 +1903,45 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>12</v>
@@ -1979,45 +1950,45 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>12</v>
@@ -2026,42 +1997,42 @@
         <v>13</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>12</v>
@@ -2070,45 +2041,45 @@
         <v>13</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>12</v>
@@ -2117,46 +2088,46 @@
         <v>13</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="11" t="s">
         <v>12</v>
       </c>
@@ -2164,45 +2135,45 @@
         <v>13</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>12</v>
@@ -2211,42 +2182,42 @@
         <v>13</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>12</v>
@@ -2255,45 +2226,45 @@
         <v>13</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>12</v>
@@ -2302,45 +2273,45 @@
         <v>13</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>12</v>
@@ -2349,45 +2320,45 @@
         <v>13</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>12</v>
@@ -2396,42 +2367,42 @@
         <v>13</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>12</v>
@@ -2440,45 +2411,45 @@
         <v>13</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>12</v>
@@ -2487,45 +2458,45 @@
         <v>13</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>12</v>
@@ -2534,47 +2505,47 @@
         <v>13</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>12</v>
@@ -2583,42 +2554,42 @@
         <v>13</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>12</v>
@@ -2627,45 +2598,45 @@
         <v>13</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>12</v>
@@ -2674,47 +2645,47 @@
         <v>13</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>12</v>
@@ -2723,45 +2694,45 @@
         <v>13</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>12</v>
@@ -2770,42 +2741,42 @@
         <v>13</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>12</v>
@@ -2814,47 +2785,47 @@
         <v>13</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>12</v>
@@ -2863,45 +2834,45 @@
         <v>13</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>12</v>
@@ -2910,45 +2881,45 @@
         <v>13</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>12</v>
@@ -2957,42 +2928,42 @@
         <v>13</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>12</v>
@@ -3001,47 +2972,47 @@
         <v>13</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q37" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>12</v>
@@ -3050,45 +3021,45 @@
         <v>13</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>12</v>
@@ -3097,45 +3068,45 @@
         <v>13</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>12</v>
@@ -3144,42 +3115,42 @@
         <v>13</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>12</v>
@@ -3188,45 +3159,45 @@
         <v>13</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>12</v>
@@ -3235,47 +3206,47 @@
         <v>13</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>12</v>
@@ -3284,45 +3255,45 @@
         <v>13</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q43" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>12</v>
@@ -3331,42 +3302,42 @@
         <v>13</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>12</v>
@@ -3375,47 +3346,47 @@
         <v>13</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q45" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>12</v>
@@ -3424,42 +3395,42 @@
         <v>13</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q46" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>12</v>
@@ -3468,45 +3439,45 @@
         <v>13</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>12</v>
@@ -3515,44 +3486,44 @@
         <v>13</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q48" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>12</v>
@@ -3561,45 +3532,45 @@
         <v>13</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>12</v>
@@ -3608,42 +3579,42 @@
         <v>13</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>12</v>
@@ -3652,47 +3623,47 @@
         <v>13</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>12</v>
@@ -3701,42 +3672,42 @@
         <v>13</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>12</v>
@@ -3745,45 +3716,45 @@
         <v>13</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q53" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>12</v>
@@ -3792,44 +3763,44 @@
         <v>13</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q54" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>12</v>
@@ -3838,45 +3809,45 @@
         <v>13</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q55" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>12</v>
@@ -3885,42 +3856,42 @@
         <v>13</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q56" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>12</v>
@@ -3929,47 +3900,47 @@
         <v>13</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q57" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>12</v>
@@ -3978,42 +3949,42 @@
         <v>13</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q58" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>12</v>
@@ -4022,45 +3993,45 @@
         <v>13</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q59" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>12</v>
@@ -4069,229 +4040,228 @@
         <v>13</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q60" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P61" s="8" t="s">
+      <c r="F62" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q61" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="H62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P62" s="8" t="s">
+      <c r="F64" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="H64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="21">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="F65" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>12</v>
@@ -4300,44 +4270,47 @@
         <v>13</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q65" s="24">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>12</v>
@@ -4346,45 +4319,45 @@
         <v>13</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q66" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>12</v>
@@ -4393,42 +4366,42 @@
         <v>13</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q67" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>12</v>
@@ -4437,48 +4410,48 @@
         <v>13</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="24">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q68" s="24">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="H69" s="11" t="s">
         <v>12</v>
       </c>
@@ -4486,209 +4459,69 @@
         <v>13</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q69" s="21">
-        <v>44568</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q70" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q71" s="24">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" s="21">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="81" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="17"/>
-      <c r="H73" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" s="25">
-        <v>44568</v>
+      <c r="A70" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q70" s="25">
+        <v>44643</v>
       </c>
     </row>
   </sheetData>
